--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>7000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -747,23 +754,29 @@
       <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>11000</v>
       </c>
-      <c r="G12" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J12" s="3">
         <v>16200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J17" s="3">
         <v>10200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-14200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-10200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-8500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-13300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-12800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-8300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-12900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-12900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-17600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-12900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-17600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-12900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-17600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,75 +1965,83 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>49400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>94000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>33600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>40100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F42" s="3">
         <v>33500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>54300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>61000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>35700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1870,46 +2049,58 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8300</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
         <v>1200</v>
       </c>
       <c r="F43" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,84 +2137,102 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F46" s="3">
         <v>61100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>64200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>78900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>88800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>99300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>38100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>42400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,46 +2269,58 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2233,25 +2472,31 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F54" s="3">
         <v>63300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>66500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>81300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>89300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>41500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>45500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,84 +2701,102 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,37 +2833,43 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2851,25 +3186,31 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>104700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>104700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-119900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-116400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-103100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-90100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-82000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-73600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-67800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F76" s="3">
         <v>54900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>57800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>70600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>82900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>90500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-71700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-66300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-12900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-17600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3252,25 +3649,31 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-15400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="J89" s="3">
         <v>-8600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F94" s="3">
         <v>20800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25100</v>
       </c>
-      <c r="G94" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>-36100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,57 +4333,63 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>66200</v>
+      </c>
+      <c r="J100" s="3">
         <v>69100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>31600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>24400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3900,51 +4397,63 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
         <v>10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-35800</v>
       </c>
-      <c r="G102" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J102" s="3">
         <v>60400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>25900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>16200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E12" s="3">
         <v>11600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E17" s="3">
         <v>15400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-8500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-8300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-32500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,31 +1409,31 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1395,11 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-42100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-42100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-42100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2053,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>94000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,40 +2098,43 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>10000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>61000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>35700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2055,41 +2145,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1700</v>
       </c>
       <c r="I43" s="3">
         <v>1700</v>
       </c>
       <c r="J43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,41 +2239,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,41 +2286,44 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E46" s="3">
         <v>32800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>61100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>64200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>88800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>99300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,40 +2380,43 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>600</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2478,14 +2598,14 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2662,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E54" s="3">
         <v>34700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2749,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,32 +2853,32 @@
         <v>4600</v>
       </c>
       <c r="E59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,41 +2888,44 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +2982,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -2871,8 +3017,8 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3170,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>104700</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3424,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-149200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-119900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-103100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-90100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-82000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-73600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3612,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E76" s="3">
         <v>27700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-71700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-66300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-42100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3649,31 +3848,34 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4174,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -3987,19 +4208,22 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4313,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>20800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -4119,19 +4349,22 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>34300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>66200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>69100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>31600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4394,14 +4643,14 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -4409,51 +4658,57 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>60400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,44 +750,47 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E12" s="3">
         <v>10200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>13500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,44 +1187,47 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-14500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-8500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,44 +1257,47 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,44 +1307,47 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-8300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,90 +1393,96 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-32500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1444,11 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,91 +1857,97 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2140,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E41" s="3">
         <v>50800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,43 +2188,46 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>10000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>54300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>61000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>35700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2148,44 +2238,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1700</v>
       </c>
       <c r="J43" s="3">
         <v>1700</v>
       </c>
       <c r="K43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,44 +2338,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2289,44 +2388,47 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E46" s="3">
         <v>54700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>64200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>88800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>99300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,43 +2488,46 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>600</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2601,14 +2721,14 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2788,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E54" s="3">
         <v>56500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>81300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +2880,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,44 +2978,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="E59" s="3">
         <v>4600</v>
       </c>
       <c r="F59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,44 +3028,47 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,34 +3128,37 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3020,8 +3166,8 @@
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3328,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3363,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>104700</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,44 +3598,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-162600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-149200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-119900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-103100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-90100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-73600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,44 +3798,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E76" s="3">
         <v>49300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>70600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-71700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-66300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3851,31 +4050,34 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,23 +4407,23 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -4211,19 +4432,22 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,34 +4543,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>20800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -4352,19 +4582,22 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E100" s="3">
         <v>34300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>66200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>69100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>31600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4646,14 +4895,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -4661,54 +4910,60 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E102" s="3">
         <v>33300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,138 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E12" s="3">
         <v>9400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-12600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-14500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>1500</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-11100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-13800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-32300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,96 +1435,102 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1493,11 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>-1500</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,47 +2226,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E41" s="3">
         <v>61200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,46 +2277,49 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>10000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>54300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>61000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2241,47 +2330,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1700</v>
       </c>
       <c r="K43" s="3">
         <v>1700</v>
       </c>
       <c r="L43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,47 +2436,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2391,47 +2489,50 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E46" s="3">
         <v>68400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>61100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>64200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>88800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>99300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,46 +2595,49 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>600</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2724,14 +2843,14 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E54" s="3">
         <v>70000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>51000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,47 +3010,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,47 +3114,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4600</v>
       </c>
       <c r="F59" s="3">
         <v>4600</v>
       </c>
       <c r="G59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3031,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,37 +3273,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3169,8 +3314,8 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3534,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>104700</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,47 +3771,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-162600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-119900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-103100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-90100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-82000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-73600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,47 +3983,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E76" s="3">
         <v>62200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>57800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>70600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-71700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-66300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4053,31 +4251,34 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4410,23 +4630,23 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -4435,19 +4655,22 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,28 +4784,28 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>20800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -4585,19 +4814,22 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>23600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>66200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>69100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4898,14 +5146,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
@@ -4913,57 +5161,63 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E102" s="3">
         <v>10400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-35800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,50 +757,53 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E12" s="3">
         <v>9800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,52 +1188,55 @@
         <v>12700</v>
       </c>
       <c r="E17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F17" s="3">
         <v>12600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12600</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-14500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-8500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,52 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-13800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-32300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-8300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,93 +1490,96 @@
         <v>-10700</v>
       </c>
       <c r="E23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-32500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1541,11 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-10700</v>
       </c>
       <c r="E26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-10700</v>
       </c>
       <c r="E27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,52 +1994,55 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-10700</v>
       </c>
       <c r="E33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-42100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-10700</v>
       </c>
       <c r="E35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-42100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E41" s="3">
         <v>53200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,38 +2381,38 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>10000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>54300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>61000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1700</v>
       </c>
       <c r="L43" s="3">
         <v>1700</v>
       </c>
       <c r="M43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E46" s="3">
         <v>60100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>64200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>88800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>99300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,49 +2703,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>600</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2846,14 +2966,14 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E54" s="3">
         <v>61600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>70000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>51000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4600</v>
       </c>
       <c r="G59" s="3">
         <v>4600</v>
       </c>
       <c r="H59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,40 +3419,43 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -3317,8 +3463,8 @@
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3704,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>104700</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-195200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-184500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-173800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-162600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-149200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-119900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-116400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-103100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-90100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-82000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-67800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E76" s="3">
         <v>52300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>57800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>82900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-71700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-66300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-10700</v>
       </c>
       <c r="E81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-42100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4254,31 +4453,34 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4633,23 +4854,23 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -4658,19 +4879,22 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,28 +5017,28 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>20800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -4817,19 +5047,22 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>23600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>66200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>69100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5149,14 +5398,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
@@ -5164,60 +5413,66 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="E17" s="3">
         <v>12700</v>
       </c>
       <c r="F17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G17" s="3">
         <v>12600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-14500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-8500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-13800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-32300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-8300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,108 +1521,114 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10700</v>
+        <v>-12000</v>
       </c>
       <c r="E23" s="3">
         <v>-10700</v>
       </c>
       <c r="F23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-11100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-32500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1590,11 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10700</v>
+        <v>-12000</v>
       </c>
       <c r="E26" s="3">
         <v>-10700</v>
       </c>
       <c r="F26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-11100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10700</v>
+        <v>-12000</v>
       </c>
       <c r="E27" s="3">
         <v>-10700</v>
       </c>
       <c r="F27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-11100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-42100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10700</v>
+        <v>-12000</v>
       </c>
       <c r="E33" s="3">
         <v>-10700</v>
       </c>
       <c r="F33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-11100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-42100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10700</v>
+        <v>-12000</v>
       </c>
       <c r="E35" s="3">
         <v>-10700</v>
       </c>
       <c r="F35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-11100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-42100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2400,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E41" s="3">
         <v>44900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>94000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2384,38 +2474,38 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>10000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>33500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>61000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2426,53 +2516,56 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1700</v>
       </c>
       <c r="M43" s="3">
         <v>1700</v>
       </c>
       <c r="N43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2634,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,53 +2693,56 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E46" s="3">
         <v>51500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>68400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>49000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>88800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>99300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,52 +2811,55 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>600</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2969,14 +3089,14 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3165,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E54" s="3">
         <v>52800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3272,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,53 +3388,56 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4600</v>
       </c>
       <c r="H59" s="3">
         <v>4600</v>
       </c>
       <c r="I59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,53 +3447,56 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
         <v>8000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,43 +3565,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3466,8 +3612,8 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3801,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>104700</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4119,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-207200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-195200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-184500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-173800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-162600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-149200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-119900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-103100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-90100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-82000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-73600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4355,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E76" s="3">
         <v>44300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>82900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-71700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-66300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10700</v>
+        <v>-12000</v>
       </c>
       <c r="E81" s="3">
         <v>-10700</v>
       </c>
       <c r="F81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-11100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-42100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4456,31 +4655,34 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5057,17 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4857,23 +5078,23 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -4882,19 +5103,22 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,28 +5250,28 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>20800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -5050,19 +5280,22 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>66200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>69100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>31600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5401,14 +5650,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
@@ -5416,63 +5665,69 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>33300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-35800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,56 +765,59 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
         <v>10000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1232,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E17" s="3">
         <v>13300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12700</v>
       </c>
       <c r="F17" s="3">
         <v>12700</v>
       </c>
       <c r="G17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H17" s="3">
         <v>12600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,56 +1306,59 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-38200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-8500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,56 +1392,59 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,56 +1454,59 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-32300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-8300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-10700</v>
       </c>
       <c r="F23" s="3">
         <v>-10700</v>
       </c>
       <c r="G23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,44 +1640,44 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1639,11 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-10700</v>
       </c>
       <c r="F26" s="3">
         <v>-10700</v>
       </c>
       <c r="G26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-10700</v>
       </c>
       <c r="F27" s="3">
         <v>-10700</v>
       </c>
       <c r="G27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-42100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,115 +2136,121 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-10700</v>
       </c>
       <c r="F33" s="3">
         <v>-10700</v>
       </c>
       <c r="G33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-42100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-10700</v>
       </c>
       <c r="F35" s="3">
         <v>-10700</v>
       </c>
       <c r="G35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-42100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,56 +2487,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E41" s="3">
         <v>56400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2477,38 +2567,38 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>10000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>35700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2519,56 +2609,59 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1700</v>
       </c>
       <c r="N43" s="3">
         <v>1700</v>
       </c>
       <c r="O43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,56 +2733,59 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2696,56 +2795,59 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E46" s="3">
         <v>62400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>51500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>49000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>88800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>99300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,55 +2919,58 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>600</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3092,14 +3212,14 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,56 +3291,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E54" s="3">
         <v>63600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>52800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>61600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>51000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>81300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,56 +3403,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,56 +3525,59 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4600</v>
       </c>
       <c r="I59" s="3">
         <v>4600</v>
       </c>
       <c r="J59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3450,56 +3587,59 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,46 +3711,49 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3615,8 +3761,8 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,56 +3959,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4046,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>104700</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,56 +4293,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-219600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-207200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-195200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-184500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-173800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-162600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-149200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-119900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-103100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-90100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-82000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-73600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,56 +4541,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E76" s="3">
         <v>53100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>70600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-66300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-10700</v>
       </c>
       <c r="F81" s="3">
         <v>-10700</v>
       </c>
       <c r="G81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-42100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4658,31 +4857,34 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-35800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5069,8 +5290,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5081,23 +5302,23 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -5106,19 +5327,22 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5253,28 +5483,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>20800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -5283,19 +5513,22 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>20000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>23600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>66200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>69100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>31600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5653,14 +5902,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
@@ -5668,66 +5917,72 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E102" s="3">
         <v>11500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>33300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>60400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,56 +771,59 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>12700</v>
       </c>
       <c r="G17" s="3">
         <v>12700</v>
       </c>
       <c r="H17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I17" s="3">
         <v>12600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,56 +1338,59 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-14500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-38200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-8500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,56 +1428,59 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,56 +1493,59 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-13800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-32300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-8300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-10700</v>
       </c>
       <c r="G23" s="3">
         <v>-10700</v>
       </c>
       <c r="H23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-32500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,44 +1688,44 @@
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1688,11 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-10700</v>
       </c>
       <c r="G26" s="3">
         <v>-10700</v>
       </c>
       <c r="H26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-33000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-10700</v>
       </c>
       <c r="G27" s="3">
         <v>-10700</v>
       </c>
       <c r="H27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-11100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,118 +2208,124 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-10700</v>
       </c>
       <c r="G33" s="3">
         <v>-10700</v>
       </c>
       <c r="H33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-11100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-42100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-10700</v>
       </c>
       <c r="G35" s="3">
         <v>-10700</v>
       </c>
       <c r="H35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-11100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-42100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,59 +2573,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E41" s="3">
         <v>44100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>40100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2570,38 +2659,38 @@
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>10000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>33500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>61000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2612,59 +2701,62 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1700</v>
       </c>
       <c r="O43" s="3">
         <v>1700</v>
       </c>
       <c r="P43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,59 +2831,62 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2798,59 +2896,62 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E46" s="3">
         <v>49700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>51500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>68400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>88800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>99300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,58 +3026,61 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>600</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>600</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3215,14 +3334,14 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E54" s="3">
         <v>50800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>52800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,59 +3533,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,59 +3661,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4600</v>
       </c>
       <c r="J59" s="3">
         <v>4600</v>
       </c>
       <c r="K59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3590,59 +3726,62 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,49 +3856,52 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3764,8 +3909,8 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4217,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>104700</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,59 +4466,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-231600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-219600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-207200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-195200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-184500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-173800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-162600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-149200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-119900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-103100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-90100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-73600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-67800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E76" s="3">
         <v>41200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>57800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>70600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>82900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-71700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-66300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-10700</v>
       </c>
       <c r="G81" s="3">
         <v>-10700</v>
       </c>
       <c r="H81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-11100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-42100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4860,31 +5058,34 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5293,8 +5513,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5305,23 +5525,23 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -5330,19 +5550,22 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5486,28 +5715,28 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>20800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -5516,19 +5745,22 @@
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>23600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>34300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>66200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>69100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>31600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>24400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5905,14 +6153,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
@@ -5920,69 +6168,75 @@
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-35800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>60400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>ETTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,56 +778,59 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12700</v>
       </c>
       <c r="H17" s="3">
         <v>12700</v>
       </c>
       <c r="I17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1341,56 +1371,59 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-14500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-8500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1431,56 +1465,59 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1496,79 +1533,82 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-13800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-8300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-10700</v>
       </c>
       <c r="H23" s="3">
         <v>-10700</v>
       </c>
       <c r="I23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,44 +1737,44 @@
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1736,11 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-10700</v>
       </c>
       <c r="H26" s="3">
         <v>-10700</v>
       </c>
       <c r="I26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-10700</v>
       </c>
       <c r="H27" s="3">
         <v>-10700</v>
       </c>
       <c r="I27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2211,121 +2281,127 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-10700</v>
       </c>
       <c r="H33" s="3">
         <v>-10700</v>
       </c>
       <c r="I33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-11100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-10700</v>
       </c>
       <c r="H35" s="3">
         <v>-10700</v>
       </c>
       <c r="I35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-11100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E41" s="3">
         <v>32300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>61200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>33600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>40100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,61 +2726,64 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>10000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>33500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2704,62 +2794,65 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1700</v>
       </c>
       <c r="P43" s="3">
         <v>1700</v>
       </c>
       <c r="Q43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,62 +2930,65 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E46" s="3">
         <v>39800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>51500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>68400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>54700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>64200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>88800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>99300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,61 +3134,64 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>600</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>600</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,7 +3418,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3337,14 +3457,14 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E54" s="3">
         <v>40900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>52800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>61600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3664,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3599,31 +3730,34 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
         <v>8500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4600</v>
       </c>
       <c r="K59" s="3">
         <v>4600</v>
       </c>
       <c r="L59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,52 +4002,55 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -3912,8 +4058,8 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4387,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>104700</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>104700</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-246900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-231600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-219600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-207200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-195200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-184500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-173800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-162600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-149200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-119900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-116400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-103100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-90100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-82000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-73600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-67800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
         <v>31200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>70600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>82900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-71700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-66300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-10700</v>
       </c>
       <c r="H81" s="3">
         <v>-10700</v>
       </c>
       <c r="I81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-11100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5061,31 +5260,34 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5516,8 +5737,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5528,23 +5749,23 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -5553,19 +5774,22 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5718,28 +5948,28 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>20800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
@@ -5748,19 +5978,22 @@
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>34300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>66200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>69100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>31600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>24400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6156,14 +6405,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
@@ -6171,72 +6420,78 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-35800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>60400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6400</v>
       </c>
     </row>
